--- a/quantum_hardware_testing_20250429.xlsx
+++ b/quantum_hardware_testing_20250429.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chl23026\Nutstore\1\Nutstore\Workspace\quantum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7733F84A-BC7B-4BE1-8261-5B297CFEC0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B0C96A-47D8-4239-898C-DFB2AC500923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>This is the testing of main_VQE_heat.py code on the IBM quantum hardware for backend1 option</t>
   </si>
@@ -52,6 +52,18 @@
   </si>
   <si>
     <t>canceled</t>
+  </si>
+  <si>
+    <t>0ebf4684-135b-4a2a-92fc-ba7c92bf441f</t>
+  </si>
+  <si>
+    <t>fe3d74ac-2d40-48ab-9b04-4af3c37061f2</t>
+  </si>
+  <si>
+    <t>e296e6b9-5c8e-462f-ba5d-841ab4dc0059</t>
+  </si>
+  <si>
+    <t>Cancel after 3h 38m 40s 373ms</t>
   </si>
 </sst>
 </file>
@@ -67,12 +79,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -87,11 +105,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -372,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,6 +453,56 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>16753790</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>16753862</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>16759910</v>
+      </c>
+      <c r="B7" s="2">
+        <v>10</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>16758299</v>
+      </c>
+      <c r="B8">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
